--- a/학습자료/오답노트/오답노트_무한반복_연표_연표_한국사_제4공화국~제5공화국.xlsx
+++ b/학습자료/오답노트/오답노트_무한반복_연표_연표_한국사_제4공화국~제5공화국.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,17 +467,133 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>1974</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>박정희 제9대 대통령 당선</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>79</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1978</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>포항 종합 제철 공장 완공</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>74</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1973</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>박종철 고문치사사건</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>79</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>평화통일 3대 원칙 발표</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>82</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1974</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>제1차 석유 파동</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>84</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1974</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>수출 100억 달러 달성</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>20221201</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>08</t>
         </is>
